--- a/table_model____spi-3__lasso_($\beta_=_$0.5).xlsx
+++ b/table_model____spi-3__lasso_($\beta_=_$0.5).xlsx
@@ -690,10 +690,10 @@
         <v>0.798426952</v>
       </c>
       <c r="B2">
-        <v>0.8805178774763366</v>
+        <v>0.8595194729038858</v>
       </c>
       <c r="C2">
-        <v>0.8834056861892283</v>
+        <v>0.8081032726922069</v>
       </c>
       <c r="D2">
         <v>0.8674250068351297</v>
@@ -845,10 +845,10 @@
         <v>-0.135008744</v>
       </c>
       <c r="B3">
-        <v>0.7711104922386945</v>
+        <v>0.7548079389749052</v>
       </c>
       <c r="C3">
-        <v>0.7736685032263099</v>
+        <v>0.717199232974438</v>
       </c>
       <c r="D3">
         <v>0.7660749059031526</v>
@@ -1000,10 +1000,10 @@
         <v>0.483128577</v>
       </c>
       <c r="B4">
-        <v>0.2096192439477455</v>
+        <v>0.2072895037155388</v>
       </c>
       <c r="C4">
-        <v>0.2105491107064879</v>
+        <v>0.1575947718217447</v>
       </c>
       <c r="D4">
         <v>0.210995090028142</v>
@@ -1155,10 +1155,10 @@
         <v>0.358803155</v>
       </c>
       <c r="B5">
-        <v>-0.3203683815988765</v>
+        <v>-0.3153609464748281</v>
       </c>
       <c r="C5">
-        <v>-0.3221606593050204</v>
+        <v>-0.3749861086054321</v>
       </c>
       <c r="D5">
         <v>-0.3115414408559702</v>
@@ -1310,10 +1310,10 @@
         <v>0.9297649529999999</v>
       </c>
       <c r="B6">
-        <v>0.2140479684776028</v>
+        <v>0.212189360797736</v>
       </c>
       <c r="C6">
-        <v>0.2149233971424665</v>
+        <v>0.1664584936927049</v>
       </c>
       <c r="D6">
         <v>0.2161612465961747</v>
@@ -1465,10 +1465,10 @@
         <v>-0.343866365</v>
       </c>
       <c r="B7">
-        <v>-0.5539759100664341</v>
+        <v>-0.5397086733923213</v>
       </c>
       <c r="C7">
-        <v>-0.5556592825051875</v>
+        <v>-0.5453741958453471</v>
       </c>
       <c r="D7">
         <v>-0.5478437322110974</v>
@@ -1620,10 +1620,10 @@
         <v>-0.394869887</v>
       </c>
       <c r="B8">
-        <v>-0.2614766350323611</v>
+        <v>-0.252685247219329</v>
       </c>
       <c r="C8">
-        <v>-0.2622314074742851</v>
+        <v>-0.2411313946776174</v>
       </c>
       <c r="D8">
         <v>-0.256237988956705</v>
@@ -1775,10 +1775,10 @@
         <v>0.124976886</v>
       </c>
       <c r="B9">
-        <v>0.4577236421414752</v>
+        <v>0.4474621775979793</v>
       </c>
       <c r="C9">
-        <v>0.459431379845381</v>
+        <v>0.451794277272795</v>
       </c>
       <c r="D9">
         <v>0.4550571600754628</v>
@@ -1930,10 +1930,10 @@
         <v>0.714385868</v>
       </c>
       <c r="B10">
-        <v>0.8977341960024674</v>
+        <v>0.8746996486339114</v>
       </c>
       <c r="C10">
-        <v>0.9007765122375564</v>
+        <v>0.8833366904507871</v>
       </c>
       <c r="D10">
         <v>0.886371273506432</v>
@@ -2085,10 +2085,10 @@
         <v>0.495936019</v>
       </c>
       <c r="B11">
-        <v>0.5359080519998772</v>
+        <v>0.5244955043954035</v>
       </c>
       <c r="C11">
-        <v>0.5377105139722155</v>
+        <v>0.5202246897387526</v>
       </c>
       <c r="D11">
         <v>0.5326541343747715</v>
@@ -2240,10 +2240,10 @@
         <v>-1.049232267</v>
       </c>
       <c r="B12">
-        <v>-0.862836011017449</v>
+        <v>-0.8429985584942014</v>
       </c>
       <c r="C12">
-        <v>-0.8655138331099841</v>
+        <v>-0.8791930875271363</v>
       </c>
       <c r="D12">
         <v>-0.8548170800356041</v>
@@ -2395,10 +2395,10 @@
         <v>-0.962528123</v>
       </c>
       <c r="B13">
-        <v>-0.5615660102019288</v>
+        <v>-0.5560628027123105</v>
       </c>
       <c r="C13">
-        <v>-0.5632739786343443</v>
+        <v>-0.6730808917405642</v>
       </c>
       <c r="D13">
         <v>-0.5588304455440927</v>
@@ -2550,10 +2550,10 @@
         <v>-0.823266309</v>
       </c>
       <c r="B14">
-        <v>-0.5607102804473463</v>
+        <v>-0.5488330343413315</v>
       </c>
       <c r="C14">
-        <v>-0.5623886956061198</v>
+        <v>-0.5374952721984406</v>
       </c>
       <c r="D14">
         <v>-0.5550114424574151</v>
@@ -2705,10 +2705,10 @@
         <v>-0.566899673</v>
       </c>
       <c r="B15">
-        <v>-0.4966607965061602</v>
+        <v>-0.4847173601459075</v>
       </c>
       <c r="C15">
-        <v>-0.4981607744711535</v>
+        <v>-0.4534886590788144</v>
       </c>
       <c r="D15">
         <v>-0.4900207763911333</v>
@@ -2860,10 +2860,10 @@
         <v>1.061843082</v>
       </c>
       <c r="B16">
-        <v>0.9391651841101629</v>
+        <v>0.910071193083522</v>
       </c>
       <c r="C16">
-        <v>0.9423075431050387</v>
+        <v>0.958525322260299</v>
       </c>
       <c r="D16">
         <v>0.9236299551509113</v>
@@ -3015,10 +3015,10 @@
         <v>1.223874814</v>
       </c>
       <c r="B17">
-        <v>1.182962113628451</v>
+        <v>1.146886585895882</v>
       </c>
       <c r="C17">
-        <v>1.186907744485315</v>
+        <v>1.128045751601342</v>
       </c>
       <c r="D17">
         <v>1.160127196925021</v>
@@ -3170,10 +3170,10 @@
         <v>1.243571118</v>
       </c>
       <c r="B18">
-        <v>1.120328383179241</v>
+        <v>1.082538473845284</v>
       </c>
       <c r="C18">
-        <v>1.124036373965812</v>
+        <v>1.066014325356084</v>
       </c>
       <c r="D18">
         <v>1.09452880059986</v>
@@ -3325,10 +3325,10 @@
         <v>-1.371414383</v>
       </c>
       <c r="B19">
-        <v>-1.169690668130314</v>
+        <v>-1.142412992810669</v>
       </c>
       <c r="C19">
-        <v>-1.173360247502748</v>
+        <v>-1.180168933889416</v>
       </c>
       <c r="D19">
         <v>-1.153627874685716</v>
@@ -3480,10 +3480,10 @@
         <v>-1.6161627</v>
       </c>
       <c r="B20">
-        <v>-1.299697783796826</v>
+        <v>-1.269075497187375</v>
       </c>
       <c r="C20">
-        <v>-1.303788318097665</v>
+        <v>-1.231710865164205</v>
       </c>
       <c r="D20">
         <v>-1.283338495678975</v>
@@ -3635,10 +3635,10 @@
         <v>-1.663613601</v>
       </c>
       <c r="B21">
-        <v>-1.253135451810533</v>
+        <v>-1.227980612166535</v>
       </c>
       <c r="C21">
-        <v>-1.257081197868752</v>
+        <v>-1.201619753467326</v>
       </c>
       <c r="D21">
         <v>-1.246902319959673</v>
@@ -3790,10 +3790,10 @@
         <v>-0.39083508</v>
       </c>
       <c r="B22">
-        <v>-0.3967968192230919</v>
+        <v>-0.3854145085158552</v>
       </c>
       <c r="C22">
-        <v>-0.3979645016531683</v>
+        <v>-0.3768034534678722</v>
       </c>
       <c r="D22">
         <v>-0.3902814285199593</v>
@@ -3945,10 +3945,10 @@
         <v>-1.294350414</v>
       </c>
       <c r="B23">
-        <v>-1.321301467057981</v>
+        <v>-1.289538857840695</v>
       </c>
       <c r="C23">
-        <v>-1.325463252401657</v>
+        <v>-1.287673097411436</v>
       </c>
       <c r="D23">
         <v>-1.317022203125769</v>
@@ -4100,10 +4100,10 @@
         <v>-1.735350123</v>
       </c>
       <c r="B24">
-        <v>-1.65797909218725</v>
+        <v>-1.616042763721131</v>
       </c>
       <c r="C24">
-        <v>-1.663246048677287</v>
+        <v>-1.580105579761386</v>
       </c>
       <c r="D24">
         <v>-1.650744242880976</v>
@@ -4255,10 +4255,10 @@
         <v>-1.464171309</v>
       </c>
       <c r="B25">
-        <v>-1.156764002734705</v>
+        <v>-1.127958724460965</v>
       </c>
       <c r="C25">
-        <v>-1.160386648861693</v>
+        <v>-1.06229739248272</v>
       </c>
       <c r="D25">
         <v>-1.146334240068609</v>
@@ -4410,10 +4410,10 @@
         <v>-1.138267628</v>
       </c>
       <c r="B26">
-        <v>-1.136767714008662</v>
+        <v>-1.109732440474148</v>
       </c>
       <c r="C26">
-        <v>-1.140328951649293</v>
+        <v>-1.044323780019623</v>
       </c>
       <c r="D26">
         <v>-1.1273864829433</v>
@@ -4565,10 +4565,10 @@
         <v>-0.231935471</v>
       </c>
       <c r="B27">
-        <v>-0.2020267160843591</v>
+        <v>-0.1961875468339227</v>
       </c>
       <c r="C27">
-        <v>-0.2019398672041514</v>
+        <v>-0.1740851236713284</v>
       </c>
       <c r="D27">
         <v>-0.1947111994261261</v>
@@ -4720,10 +4720,10 @@
         <v>-1.071257154</v>
       </c>
       <c r="B28">
-        <v>-1.252524256039271</v>
+        <v>-1.22448272098742</v>
       </c>
       <c r="C28">
-        <v>-1.256469113670192</v>
+        <v>-1.222860603783967</v>
       </c>
       <c r="D28">
         <v>-1.23889422577919</v>
@@ -4875,10 +4875,10 @@
         <v>-0.788753691</v>
       </c>
       <c r="B29">
-        <v>-0.6754642576581404</v>
+        <v>-0.6623274543518686</v>
       </c>
       <c r="C29">
-        <v>-0.6775382603695951</v>
+        <v>-0.6875182619996014</v>
       </c>
       <c r="D29">
         <v>-0.6705173145181187</v>
@@ -5030,10 +5030,10 @@
         <v>0.168216722</v>
       </c>
       <c r="B30">
-        <v>0.3393931984905884</v>
+        <v>0.3289497186892775</v>
       </c>
       <c r="C30">
-        <v>0.3384802139870742</v>
+        <v>0.2916789143686255</v>
       </c>
       <c r="D30">
         <v>0.335967881984582</v>
@@ -5185,10 +5185,10 @@
         <v>0.589617249</v>
       </c>
       <c r="B31">
-        <v>1.120566689894544</v>
+        <v>1.092578099913144</v>
       </c>
       <c r="C31">
-        <v>1.124467590258062</v>
+        <v>1.067232626333297</v>
       </c>
       <c r="D31">
         <v>1.106263045421345</v>
@@ -5340,10 +5340,10 @@
         <v>0.34764818</v>
       </c>
       <c r="B32">
-        <v>0.8518573726610508</v>
+        <v>0.8315278115069682</v>
       </c>
       <c r="C32">
-        <v>0.8548927517612022</v>
+        <v>0.8123530064621638</v>
       </c>
       <c r="D32">
         <v>0.8429678242551925</v>
@@ -5495,10 +5495,10 @@
         <v>-1.151348471</v>
       </c>
       <c r="B33">
-        <v>-0.3267509772909266</v>
+        <v>-0.3185703804812464</v>
       </c>
       <c r="C33">
-        <v>-0.327690341266607</v>
+        <v>-0.3088213020713095</v>
       </c>
       <c r="D33">
         <v>-0.3195777983563248</v>
@@ -5650,10 +5650,10 @@
         <v>-0.696093006</v>
       </c>
       <c r="B34">
-        <v>-0.7230094092475416</v>
+        <v>-0.7052431746216847</v>
       </c>
       <c r="C34">
-        <v>-0.7252259667676557</v>
+        <v>-0.691986442224551</v>
       </c>
       <c r="D34">
         <v>-0.7126815283242169</v>
@@ -5805,10 +5805,10 @@
         <v>-0.726012958</v>
       </c>
       <c r="B35">
-        <v>-0.4919768721510989</v>
+        <v>-0.4791699179733357</v>
       </c>
       <c r="C35">
-        <v>-0.4934295623898696</v>
+        <v>-0.4651638520178781</v>
       </c>
       <c r="D35">
         <v>-0.4822834273707522</v>
@@ -5960,10 +5960,10 @@
         <v>-0.087224411</v>
       </c>
       <c r="B36">
-        <v>-0.2425229013382457</v>
+        <v>-0.2375661248024308</v>
       </c>
       <c r="C36">
-        <v>-0.2430995446128894</v>
+        <v>-0.2236397572411717</v>
       </c>
       <c r="D36">
         <v>-0.2349725321032305</v>
@@ -6115,10 +6115,10 @@
         <v>-1.025152274</v>
       </c>
       <c r="B37">
-        <v>-0.8076719564325475</v>
+        <v>-0.7887172792596379</v>
       </c>
       <c r="C37">
-        <v>-0.8101711420766057</v>
+        <v>-0.7969968778647594</v>
       </c>
       <c r="D37">
         <v>-0.7977091666805668</v>
@@ -6270,10 +6270,10 @@
         <v>-1.065636548</v>
       </c>
       <c r="B38">
-        <v>-0.9528087154907537</v>
+        <v>-0.9325914746117971</v>
       </c>
       <c r="C38">
-        <v>-0.9557745190639888</v>
+        <v>-0.9495926596124966</v>
       </c>
       <c r="D38">
         <v>-0.9444270828248147</v>
@@ -6425,10 +6425,10 @@
         <v>-1.658517568</v>
       </c>
       <c r="B39">
-        <v>-0.9640439910448024</v>
+        <v>-0.9497236835937766</v>
       </c>
       <c r="C39">
-        <v>-0.9670468515862802</v>
+        <v>-0.9542877997136588</v>
       </c>
       <c r="D39">
         <v>-0.9599469528549036</v>
@@ -6580,10 +6580,10 @@
         <v>0.670350201</v>
       </c>
       <c r="B40">
-        <v>0.3746482156815745</v>
+        <v>0.3669747843393237</v>
       </c>
       <c r="C40">
-        <v>0.3758403585430607</v>
+        <v>0.4002286155561249</v>
       </c>
       <c r="D40">
         <v>0.3729479706941783</v>
@@ -6735,10 +6735,10 @@
         <v>0.58174072</v>
       </c>
       <c r="B41">
-        <v>0.3822671685337094</v>
+        <v>0.3746508649620191</v>
       </c>
       <c r="C41">
-        <v>0.3835206611053875</v>
+        <v>0.3997309018268129</v>
       </c>
       <c r="D41">
         <v>0.381072867555576</v>
@@ -6890,10 +6890,10 @@
         <v>1.034492187</v>
       </c>
       <c r="B42">
-        <v>0.7201635501026563</v>
+        <v>0.7028010848112882</v>
       </c>
       <c r="C42">
-        <v>0.7226014971704321</v>
+        <v>0.7142761058523039</v>
       </c>
       <c r="D42">
         <v>0.7121944766648344</v>
@@ -7045,10 +7045,10 @@
         <v>-0.330510864</v>
       </c>
       <c r="B43">
-        <v>-0.2690627404478617</v>
+        <v>-0.2645497179031941</v>
       </c>
       <c r="C43">
-        <v>-0.2698512270159953</v>
+        <v>-0.2869041130414413</v>
       </c>
       <c r="D43">
         <v>-0.2664560679932609</v>
@@ -7200,10 +7200,10 @@
         <v>0.468647097</v>
       </c>
       <c r="B44">
-        <v>0.5118358139176199</v>
+        <v>0.4995986503535422</v>
       </c>
       <c r="C44">
-        <v>0.5137055751396755</v>
+        <v>0.4953163197191663</v>
       </c>
       <c r="D44">
         <v>0.5082044806755281</v>
@@ -7355,10 +7355,10 @@
         <v>1.030934397</v>
       </c>
       <c r="B45">
-        <v>1.588701209035738</v>
+        <v>1.539238673803879</v>
       </c>
       <c r="C45">
-        <v>1.594028723346874</v>
+        <v>1.539793658309507</v>
       </c>
       <c r="D45">
         <v>1.557197953616258</v>
@@ -7510,10 +7510,10 @@
         <v>1.479112841</v>
       </c>
       <c r="B46">
-        <v>2.07660881202505</v>
+        <v>2.006703614573879</v>
       </c>
       <c r="C46">
-        <v>2.083485248676098</v>
+        <v>2.003613668422065</v>
       </c>
       <c r="D46">
         <v>2.022817779166301</v>
@@ -7665,10 +7665,10 @@
         <v>1.817472853</v>
       </c>
       <c r="B47">
-        <v>2.337031221890255</v>
+        <v>2.263286983402357</v>
       </c>
       <c r="C47">
-        <v>2.344776817508306</v>
+        <v>2.256980012718594</v>
       </c>
       <c r="D47">
         <v>2.277103437824713</v>
@@ -7820,10 +7820,10 @@
         <v>0.369717394</v>
       </c>
       <c r="B48">
-        <v>0.8365205254610114</v>
+        <v>0.8145303468493761</v>
       </c>
       <c r="C48">
-        <v>0.8393968660883654</v>
+        <v>0.7818373310337419</v>
       </c>
       <c r="D48">
         <v>0.8246021683245626</v>
@@ -7975,10 +7975,10 @@
         <v>-0.162350195</v>
       </c>
       <c r="B49">
-        <v>-0.1244271870676956</v>
+        <v>-0.1214601293703914</v>
       </c>
       <c r="C49">
-        <v>-0.1256061830615612</v>
+        <v>-0.1454368013052575</v>
       </c>
       <c r="D49">
         <v>-0.1196113207836719</v>
@@ -8130,10 +8130,10 @@
         <v>-0.729825744</v>
       </c>
       <c r="B50">
-        <v>-0.9525333846871459</v>
+        <v>-0.9289817259981649</v>
       </c>
       <c r="C50">
-        <v>-0.9554173664343968</v>
+        <v>-0.9640667391222164</v>
       </c>
       <c r="D50">
         <v>-0.9340820168335738</v>
@@ -8285,10 +8285,10 @@
         <v>-0.317430882</v>
       </c>
       <c r="B51">
-        <v>-0.8579608104806007</v>
+        <v>-0.8365559468999556</v>
       </c>
       <c r="C51">
-        <v>-0.8604223050471105</v>
+        <v>-0.8672596214371203</v>
       </c>
       <c r="D51">
         <v>-0.8409457178967183</v>
@@ -8440,10 +8440,10 @@
         <v>-0.490640104</v>
       </c>
       <c r="B52">
-        <v>-0.7153814907873174</v>
+        <v>-0.6951028263810176</v>
       </c>
       <c r="C52">
-        <v>-0.7215835712796215</v>
+        <v>-0.6997018120390988</v>
       </c>
       <c r="D52">
         <v>-0.7046779808886237</v>
@@ -8595,10 +8595,10 @@
         <v>-1.100609032</v>
       </c>
       <c r="B53">
-        <v>-0.9997611158426932</v>
+        <v>-0.9766414210045784</v>
       </c>
       <c r="C53">
-        <v>-1.002858700116318</v>
+        <v>-0.9895351569167026</v>
       </c>
       <c r="D53">
         <v>-0.9855289946652162</v>
@@ -8750,10 +8750,10 @@
         <v>-0.351083172</v>
       </c>
       <c r="B54">
-        <v>-0.2597475786119669</v>
+        <v>-0.2461339315095411</v>
       </c>
       <c r="C54">
-        <v>-0.2563948420302617</v>
+        <v>-0.24773616278343</v>
       </c>
       <c r="D54">
         <v>-0.2479094774322497</v>
@@ -8905,10 +8905,10 @@
         <v>0.476992209</v>
       </c>
       <c r="B55">
-        <v>0.8703719346630017</v>
+        <v>0.846355222758795</v>
       </c>
       <c r="C55">
-        <v>0.8733548364003527</v>
+        <v>0.8286418712976774</v>
       </c>
       <c r="D55">
         <v>0.85589534401788</v>
@@ -9060,10 +9060,10 @@
         <v>1.269210822</v>
       </c>
       <c r="B56">
-        <v>1.612935712144581</v>
+        <v>1.565398325308418</v>
       </c>
       <c r="C56">
-        <v>1.618380786407837</v>
+        <v>1.54587100136944</v>
       </c>
       <c r="D56">
         <v>1.581149967464603</v>
@@ -9215,10 +9215,10 @@
         <v>1.68335771</v>
       </c>
       <c r="B57">
-        <v>1.821545131406984</v>
+        <v>1.766483159626995</v>
       </c>
       <c r="C57">
-        <v>1.827628556367136</v>
+        <v>1.755202360233609</v>
       </c>
       <c r="D57">
         <v>1.77934735399528</v>
@@ -9370,10 +9370,10 @@
         <v>1.248614285</v>
       </c>
       <c r="B58">
-        <v>1.340787248432177</v>
+        <v>1.304074673243746</v>
       </c>
       <c r="C58">
-        <v>1.345296513634805</v>
+        <v>1.284746298376665</v>
       </c>
       <c r="D58">
         <v>1.317314760475712</v>
@@ -9525,10 +9525,10 @@
         <v>0.747520063</v>
       </c>
       <c r="B59">
-        <v>0.7264803829597127</v>
+        <v>0.7050821940704046</v>
       </c>
       <c r="C59">
-        <v>0.7289374144439881</v>
+        <v>0.6966359557666179</v>
       </c>
       <c r="D59">
         <v>0.7153969210738638</v>
@@ -9680,10 +9680,10 @@
         <v>-0.631971431</v>
       </c>
       <c r="B60">
-        <v>-0.4925398803845832</v>
+        <v>-0.480457849518408</v>
       </c>
       <c r="C60">
-        <v>-0.4940113235982517</v>
+        <v>-0.5278439826277728</v>
       </c>
       <c r="D60">
         <v>-0.4820944398564359</v>
@@ -9835,10 +9835,10 @@
         <v>-0.10813702</v>
       </c>
       <c r="B61">
-        <v>0.1747603713131192</v>
+        <v>0.1715407972563842</v>
       </c>
       <c r="C61">
-        <v>0.1753682141437</v>
+        <v>0.1468848604392829</v>
       </c>
       <c r="D61">
         <v>0.1759877446032153</v>
@@ -9990,10 +9990,10 @@
         <v>0.399434913</v>
       </c>
       <c r="B62">
-        <v>0.6857823056182853</v>
+        <v>0.6697287990597748</v>
       </c>
       <c r="C62">
-        <v>0.6881993844193268</v>
+        <v>0.6191583367550014</v>
       </c>
       <c r="D62">
         <v>0.6791860634839558</v>
@@ -10145,10 +10145,10 @@
         <v>0.598079881</v>
       </c>
       <c r="B63">
-        <v>0.8953071543116867</v>
+        <v>0.8749302379963638</v>
       </c>
       <c r="C63">
-        <v>0.8984620028487933</v>
+        <v>0.8255867070762346</v>
       </c>
       <c r="D63">
         <v>0.8870830159693804</v>
@@ -10300,10 +10300,10 @@
         <v>-0.364643642</v>
       </c>
       <c r="B64">
-        <v>-0.127427899839375</v>
+        <v>-0.1230397186951177</v>
       </c>
       <c r="C64">
-        <v>-0.1277776405815887</v>
+        <v>-0.1668908350240424</v>
       </c>
       <c r="D64">
         <v>-0.1247233923353371</v>
@@ -10455,10 +10455,10 @@
         <v>2.015990384</v>
       </c>
       <c r="B65">
-        <v>1.863512235524188</v>
+        <v>1.801307084906717</v>
       </c>
       <c r="C65">
-        <v>1.869753722021322</v>
+        <v>1.834454709962798</v>
       </c>
       <c r="D65">
         <v>1.825354430206859</v>
@@ -10610,10 +10610,10 @@
         <v>2.364869298</v>
       </c>
       <c r="B66">
-        <v>1.94253427893521</v>
+        <v>1.875811437236826</v>
       </c>
       <c r="C66">
-        <v>1.949028419773524</v>
+        <v>1.911767655307672</v>
       </c>
       <c r="D66">
         <v>1.900760410068322</v>
@@ -10765,10 +10765,10 @@
         <v>2.827580557</v>
       </c>
       <c r="B67">
-        <v>2.148505108457182</v>
+        <v>2.081195828117713</v>
       </c>
       <c r="C67">
-        <v>2.155689176009099</v>
+        <v>2.063454516760626</v>
       </c>
       <c r="D67">
         <v>2.106841399193392</v>
@@ -10920,10 +10920,10 @@
         <v>0.626809444</v>
       </c>
       <c r="B68">
-        <v>0.4677712146967871</v>
+        <v>0.4577217119788566</v>
       </c>
       <c r="C68">
-        <v>0.4701091316617417</v>
+        <v>0.3935267167981253</v>
       </c>
       <c r="D68">
         <v>0.4655231908916106</v>
@@ -11075,10 +11075,10 @@
         <v>0.49739888</v>
       </c>
       <c r="B69">
-        <v>0.3879043541995178</v>
+        <v>0.3802470630086018</v>
       </c>
       <c r="C69">
-        <v>0.3903197730110151</v>
+        <v>0.3146566770583527</v>
       </c>
       <c r="D69">
         <v>0.3872810537534055</v>
@@ -11230,10 +11230,10 @@
         <v>0.325808278</v>
       </c>
       <c r="B70">
-        <v>0.01273188911243295</v>
+        <v>0.01165576377831535</v>
       </c>
       <c r="C70">
-        <v>0.01275823669199588</v>
+        <v>-0.01611238592073286</v>
       </c>
       <c r="D70">
         <v>0.0148943297753885</v>
@@ -11385,10 +11385,10 @@
         <v>0.365489314</v>
       </c>
       <c r="B71">
-        <v>0.09347062381231888</v>
+        <v>0.09505812540803446</v>
       </c>
       <c r="C71">
-        <v>0.09420565140145901</v>
+        <v>0.1066172985334867</v>
       </c>
       <c r="D71">
         <v>0.09649987883289965</v>
@@ -11540,10 +11540,10 @@
         <v>1.026844468</v>
       </c>
       <c r="B72">
-        <v>0.7127915715172851</v>
+        <v>0.6947799552513448</v>
       </c>
       <c r="C72">
-        <v>0.7152212969692259</v>
+        <v>0.6905988293774348</v>
       </c>
       <c r="D72">
         <v>0.705426691297135</v>
@@ -11695,10 +11695,10 @@
         <v>0.699083059</v>
       </c>
       <c r="B73">
-        <v>0.6210076224558997</v>
+        <v>0.5932135398278013</v>
       </c>
       <c r="C73">
-        <v>0.6230335444232008</v>
+        <v>0.6017325796814447</v>
       </c>
       <c r="D73">
         <v>0.6068633874753652</v>
@@ -11850,10 +11850,10 @@
         <v>0.662278742</v>
       </c>
       <c r="B74">
-        <v>0.6441662856878272</v>
+        <v>0.6176431997195756</v>
       </c>
       <c r="C74">
-        <v>0.6463296446837611</v>
+        <v>0.573397512384357</v>
       </c>
       <c r="D74">
         <v>0.6315903452858692</v>
@@ -12005,10 +12005,10 @@
         <v>0.456505507</v>
       </c>
       <c r="B75">
-        <v>0.3373528542415162</v>
+        <v>0.3258180464836328</v>
       </c>
       <c r="C75">
-        <v>0.3384774146536471</v>
+        <v>0.2847683254343402</v>
       </c>
       <c r="D75">
         <v>0.3331876311979118</v>
@@ -12160,10 +12160,10 @@
         <v>-0.181605646</v>
       </c>
       <c r="B76">
-        <v>-0.1715142205305868</v>
+        <v>-0.1689552652680068</v>
       </c>
       <c r="C76">
-        <v>-0.1720031738058284</v>
+        <v>-0.2339785364263037</v>
       </c>
       <c r="D76">
         <v>-0.1694172322415597</v>
@@ -12315,10 +12315,10 @@
         <v>0.647849754</v>
       </c>
       <c r="B77">
-        <v>0.4355220027790871</v>
+        <v>0.4240966535417517</v>
       </c>
       <c r="C77">
-        <v>0.4370177001750551</v>
+        <v>0.4028374494346614</v>
       </c>
       <c r="D77">
         <v>0.4307521612971045</v>
@@ -12470,10 +12470,10 @@
         <v>-0.151031448</v>
       </c>
       <c r="B78">
-        <v>-0.4582060080757142</v>
+        <v>-0.4463336449458117</v>
       </c>
       <c r="C78">
-        <v>-0.4595271226959819</v>
+        <v>-0.4420692098957593</v>
       </c>
       <c r="D78">
         <v>-0.4478381464029926</v>
@@ -12625,10 +12625,10 @@
         <v>0.204622557</v>
       </c>
       <c r="B79">
-        <v>-0.01963360615996385</v>
+        <v>-0.01703129509342861</v>
       </c>
       <c r="C79">
-        <v>-0.01987879248846759</v>
+        <v>-0.01269849300862553</v>
       </c>
       <c r="D79">
         <v>-0.01579833790144662</v>
@@ -12780,10 +12780,10 @@
         <v>0.6727765610000001</v>
       </c>
       <c r="B80">
-        <v>0.6223927650767365</v>
+        <v>0.6096466089694228</v>
       </c>
       <c r="C80">
-        <v>0.6248165107745456</v>
+        <v>0.5711050060668906</v>
       </c>
       <c r="D80">
         <v>0.6183756767960661</v>
@@ -12935,10 +12935,10 @@
         <v>1.409854459</v>
       </c>
       <c r="B81">
-        <v>1.324140628998298</v>
+        <v>1.292700883246302</v>
       </c>
       <c r="C81">
-        <v>1.328716892683267</v>
+        <v>1.243302459611276</v>
       </c>
       <c r="D81">
         <v>1.309459079176027</v>
@@ -13090,10 +13090,10 @@
         <v>1.436857019</v>
       </c>
       <c r="B82">
-        <v>1.230240584270987</v>
+        <v>1.203451520777859</v>
       </c>
       <c r="C82">
-        <v>1.234478253723878</v>
+        <v>1.159209793929489</v>
       </c>
       <c r="D82">
         <v>1.220420742896206</v>
@@ -13245,10 +13245,10 @@
         <v>-0.078187413</v>
       </c>
       <c r="B83">
-        <v>-0.3936635443158224</v>
+        <v>-0.384078308111975</v>
       </c>
       <c r="C83">
-        <v>-0.3948354459827647</v>
+        <v>-0.3772843130874304</v>
       </c>
       <c r="D83">
         <v>-0.3937493339426127</v>
@@ -13400,10 +13400,10 @@
         <v>-0.089819775</v>
       </c>
       <c r="B84">
-        <v>-0.20434237026992</v>
+        <v>-0.1972889064118984</v>
       </c>
       <c r="C84">
-        <v>-0.204930988714616</v>
+        <v>-0.1854191759731458</v>
       </c>
       <c r="D84">
         <v>-0.2037499778737094</v>
@@ -13555,10 +13555,10 @@
         <v>-0.951749297</v>
       </c>
       <c r="B85">
-        <v>-0.9119988107764645</v>
+        <v>-0.8886447098772834</v>
       </c>
       <c r="C85">
-        <v>-0.9148289944786727</v>
+        <v>-0.8469362122491005</v>
       </c>
       <c r="D85">
         <v>-0.9116751312324626</v>
@@ -13710,10 +13710,10 @@
         <v>-0.611776729</v>
       </c>
       <c r="B86">
-        <v>-0.3814629455940927</v>
+        <v>-0.3693428812550547</v>
       </c>
       <c r="C86">
-        <v>-0.3826012588626974</v>
+        <v>-0.3314955300119323</v>
       </c>
       <c r="D86">
         <v>-0.3793422787244796</v>
@@ -13865,10 +13865,10 @@
         <v>-1.503113365</v>
       </c>
       <c r="B87">
-        <v>-1.48480695687224</v>
+        <v>-1.449724609002722</v>
       </c>
       <c r="C87">
-        <v>-1.48946083436057</v>
+        <v>-1.361966732272934</v>
       </c>
       <c r="D87">
         <v>-1.483702411167011</v>
@@ -14020,10 +14020,10 @@
         <v>-0.95035541</v>
       </c>
       <c r="B88">
-        <v>-1.274803308263956</v>
+        <v>-1.244653612267701</v>
       </c>
       <c r="C88">
-        <v>-1.278754478048778</v>
+        <v>-1.151106372092664</v>
       </c>
       <c r="D88">
         <v>-1.27024908139593</v>
@@ -14175,10 +14175,10 @@
         <v>-0.869041164</v>
       </c>
       <c r="B89">
-        <v>-0.7032746574429241</v>
+        <v>-0.6859950921091281</v>
       </c>
       <c r="C89">
-        <v>-0.705430656648325</v>
+        <v>-0.6486535528747274</v>
       </c>
       <c r="D89">
         <v>-0.6996496386514809</v>
@@ -14330,10 +14330,10 @@
         <v>-0.621619324</v>
       </c>
       <c r="B90">
-        <v>-0.5912490730454857</v>
+        <v>-0.5773408144269435</v>
       </c>
       <c r="C90">
-        <v>-0.593046742240128</v>
+        <v>-0.5498506519289283</v>
       </c>
       <c r="D90">
         <v>-0.589733783770358</v>
@@ -14485,10 +14485,10 @@
         <v>0.820733698</v>
       </c>
       <c r="B91">
-        <v>0.3661702167388869</v>
+        <v>0.3450524849865939</v>
       </c>
       <c r="C91">
-        <v>0.36258128366876</v>
+        <v>0.3318828815122347</v>
       </c>
       <c r="D91">
         <v>0.3597080132601435</v>
@@ -14640,10 +14640,10 @@
         <v>1.157975086</v>
       </c>
       <c r="B92">
-        <v>0.6644058300586355</v>
+        <v>0.6521797061769845</v>
       </c>
       <c r="C92">
-        <v>0.6672328697125474</v>
+        <v>0.6175709357549354</v>
       </c>
       <c r="D92">
         <v>0.6605940578766704</v>
@@ -14795,10 +14795,10 @@
         <v>1.16180901</v>
       </c>
       <c r="B93">
-        <v>0.6942889275802799</v>
+        <v>0.6813618056226639</v>
       </c>
       <c r="C93">
-        <v>0.6970543011647801</v>
+        <v>0.6450009200823106</v>
       </c>
       <c r="D93">
         <v>0.6905522260173654</v>
@@ -14950,10 +14950,10 @@
         <v>0.673844651</v>
       </c>
       <c r="B94">
-        <v>0.4400075337603488</v>
+        <v>0.4331790387166392</v>
       </c>
       <c r="C94">
-        <v>0.4423458374668267</v>
+        <v>0.4120959439764529</v>
       </c>
       <c r="D94">
         <v>0.4388537513865543</v>
@@ -15105,10 +15105,10 @@
         <v>0.576154411</v>
       </c>
       <c r="B95">
-        <v>0.2732511445662905</v>
+        <v>0.2673957549652007</v>
       </c>
       <c r="C95">
-        <v>0.2737156342673491</v>
+        <v>0.2567752121835559</v>
       </c>
       <c r="D95">
         <v>0.2715405948298895</v>
@@ -15260,10 +15260,10 @@
         <v>-0.247999935</v>
       </c>
       <c r="B96">
-        <v>-0.3565146512444428</v>
+        <v>-0.3461943197820351</v>
       </c>
       <c r="C96">
-        <v>-0.3575739661026229</v>
+        <v>-0.3302897504699414</v>
       </c>
       <c r="D96">
         <v>-0.3558827379006949</v>
@@ -15415,10 +15415,10 @@
         <v>-1.022406207</v>
       </c>
       <c r="B97">
-        <v>-1.120290784204208</v>
+        <v>-1.09276205138733</v>
       </c>
       <c r="C97">
-        <v>-1.123791476508665</v>
+        <v>-1.044138712121639</v>
       </c>
       <c r="D97">
         <v>-1.121134308621487</v>
@@ -15570,10 +15570,10 @@
         <v>-0.898568511</v>
       </c>
       <c r="B98">
-        <v>-0.7603092060965106</v>
+        <v>-0.7397655163732466</v>
       </c>
       <c r="C98">
-        <v>-0.7626499110138538</v>
+        <v>-0.6881028019011258</v>
       </c>
       <c r="D98">
         <v>-0.7586250326578303</v>
@@ -15725,10 +15725,10 @@
         <v>-0.35746994</v>
       </c>
       <c r="B99">
-        <v>-0.176188671538576</v>
+        <v>-0.1699479777664034</v>
       </c>
       <c r="C99">
-        <v>-0.1766926503760533</v>
+        <v>-0.1403802310436928</v>
       </c>
       <c r="D99">
         <v>-0.173399137279952</v>
@@ -15880,10 +15880,10 @@
         <v>-0.676801503</v>
       </c>
       <c r="B100">
-        <v>0.05855208165862105</v>
+        <v>0.05791678372410058</v>
       </c>
       <c r="C100">
-        <v>0.05874151044543755</v>
+        <v>0.08208929657109923</v>
       </c>
       <c r="D100">
         <v>0.05942264212043188</v>
@@ -16035,10 +16035,10 @@
         <v>-0.963128334</v>
       </c>
       <c r="B101">
-        <v>-0.1888359811739476</v>
+        <v>-0.1830471431778729</v>
       </c>
       <c r="C101">
-        <v>-0.1893775064928584</v>
+        <v>-0.1647187533699735</v>
       </c>
       <c r="D101">
         <v>-0.1862343569521745</v>
@@ -16190,10 +16190,10 @@
         <v>-1.089650457</v>
       </c>
       <c r="B102">
-        <v>-0.4575427928987128</v>
+        <v>-0.446346696131491</v>
       </c>
       <c r="C102">
-        <v>-0.4589172299035747</v>
+        <v>-0.4234772915087561</v>
       </c>
       <c r="D102">
         <v>-0.4559610488609503</v>
@@ -16345,10 +16345,10 @@
         <v>-1.754660522</v>
       </c>
       <c r="B103">
-        <v>-1.043674170248219</v>
+        <v>-1.022592806383398</v>
       </c>
       <c r="C103">
-        <v>-1.046922425943504</v>
+        <v>-0.990417326403316</v>
       </c>
       <c r="D103">
         <v>-1.043900963469599</v>
@@ -16500,10 +16500,10 @@
         <v>-1.724252511</v>
       </c>
       <c r="B104">
-        <v>-1.61087360871994</v>
+        <v>-1.581231680972096</v>
       </c>
       <c r="C104">
-        <v>-1.615951775025798</v>
+        <v>-1.540307855562955</v>
       </c>
       <c r="D104">
         <v>-1.617336653839374</v>
@@ -16655,10 +16655,10 @@
         <v>-1.868408762</v>
       </c>
       <c r="B105">
-        <v>-1.836213095700365</v>
+        <v>-1.803759683069623</v>
       </c>
       <c r="C105">
-        <v>-1.842006762912855</v>
+        <v>-1.754861129527585</v>
       </c>
       <c r="D105">
         <v>-1.850188145274948</v>
@@ -16810,10 +16810,10 @@
         <v>-0.07703964000000001</v>
       </c>
       <c r="B106">
-        <v>-0.441321192982297</v>
+        <v>-0.4318436376769191</v>
       </c>
       <c r="C106">
-        <v>-0.4426432164204383</v>
+        <v>-0.4236069791904744</v>
       </c>
       <c r="D106">
         <v>-0.4411523906895233</v>
@@ -16965,10 +16965,10 @@
         <v>-0.058419279</v>
       </c>
       <c r="B107">
-        <v>-0.527687529188409</v>
+        <v>-0.5154371179112769</v>
       </c>
       <c r="C107">
-        <v>-0.5292815518358862</v>
+        <v>-0.5048638013196727</v>
       </c>
       <c r="D107">
         <v>-0.5280004553303163</v>
@@ -17120,10 +17120,10 @@
         <v>1.204247991</v>
       </c>
       <c r="B108">
-        <v>0.7204135685565886</v>
+        <v>0.7078206256756303</v>
       </c>
       <c r="C108">
-        <v>0.7230713781984788</v>
+        <v>0.6964965485442247</v>
       </c>
       <c r="D108">
         <v>0.7169714658958625</v>
@@ -17275,10 +17275,10 @@
         <v>1.183657404</v>
       </c>
       <c r="B109">
-        <v>1.338128228237022</v>
+        <v>1.309379727764817</v>
       </c>
       <c r="C109">
-        <v>1.342710304505685</v>
+        <v>1.286938746688481</v>
       </c>
       <c r="D109">
         <v>1.326554893276423</v>
@@ -17430,10 +17430,10 @@
         <v>1.235714724</v>
       </c>
       <c r="B110">
-        <v>1.599163410827595</v>
+        <v>1.561634865425972</v>
       </c>
       <c r="C110">
-        <v>1.604567838318915</v>
+        <v>1.537833097158113</v>
       </c>
       <c r="D110">
         <v>1.581165570053502</v>
@@ -17585,10 +17585,10 @@
         <v>1.193822144</v>
       </c>
       <c r="B111">
-        <v>1.096620225240005</v>
+        <v>1.071065252838748</v>
       </c>
       <c r="C111">
-        <v>1.100419230478637</v>
+        <v>1.063286643386366</v>
       </c>
       <c r="D111">
         <v>1.085424360365555</v>
@@ -17740,10 +17740,10 @@
         <v>1.680661976</v>
       </c>
       <c r="B112">
-        <v>1.595478011072553</v>
+        <v>1.555019050680367</v>
       </c>
       <c r="C112">
-        <v>1.600926282319036</v>
+        <v>1.528786897251846</v>
       </c>
       <c r="D112">
         <v>1.574261918791895</v>
@@ -17895,10 +17895,10 @@
         <v>1.735508276</v>
       </c>
       <c r="B113">
-        <v>1.798127506479027</v>
+        <v>1.75128920441734</v>
       </c>
       <c r="C113">
-        <v>1.804215435217904</v>
+        <v>1.722503377238094</v>
       </c>
       <c r="D113">
         <v>1.77162849204853</v>
@@ -18050,10 +18050,10 @@
         <v>1.120645867</v>
       </c>
       <c r="B114">
-        <v>1.690028491118594</v>
+        <v>1.648903477295746</v>
       </c>
       <c r="C114">
-        <v>1.695779727848973</v>
+        <v>1.613356435480482</v>
       </c>
       <c r="D114">
         <v>1.669235966567854</v>
@@ -18205,10 +18205,10 @@
         <v>0.220765723</v>
       </c>
       <c r="B115">
-        <v>0.5456242031452828</v>
+        <v>0.5365081031313879</v>
       </c>
       <c r="C115">
-        <v>0.5479879821112956</v>
+        <v>0.5149164902530381</v>
       </c>
       <c r="D115">
         <v>0.5431417297419666</v>
@@ -18360,10 +18360,10 @@
         <v>0.291028273</v>
       </c>
       <c r="B116">
-        <v>0.4565378229599061</v>
+        <v>0.4337720579863732</v>
       </c>
       <c r="C116">
-        <v>0.4520228386036702</v>
+        <v>0.4076508371855548</v>
       </c>
       <c r="D116">
         <v>0.447507181642833</v>
@@ -18515,10 +18515,10 @@
         <v>0.583045483</v>
       </c>
       <c r="B117">
-        <v>1.172834305299242</v>
+        <v>1.148466849238527</v>
       </c>
       <c r="C117">
-        <v>1.176961098550559</v>
+        <v>1.099193518555012</v>
       </c>
       <c r="D117">
         <v>1.164538288488302</v>
@@ -18670,10 +18670,10 @@
         <v>1.459657324</v>
       </c>
       <c r="B118">
-        <v>1.549903903496431</v>
+        <v>1.515024100609165</v>
       </c>
       <c r="C118">
-        <v>1.555160494190852</v>
+        <v>1.461908492768869</v>
       </c>
       <c r="D118">
         <v>1.535171146953804</v>
@@ -18825,10 +18825,10 @@
         <v>0.957846139</v>
       </c>
       <c r="B119">
-        <v>1.34850533792283</v>
+        <v>1.319547965268949</v>
       </c>
       <c r="C119">
-        <v>1.353127914269355</v>
+        <v>1.283407653996587</v>
       </c>
       <c r="D119">
         <v>1.337518215829638</v>
@@ -18980,10 +18980,10 @@
         <v>1.102629823</v>
       </c>
       <c r="B120">
-        <v>0.5279251455855247</v>
+        <v>0.5203704109411479</v>
       </c>
       <c r="C120">
-        <v>0.5300899476379518</v>
+        <v>0.5134997086359573</v>
       </c>
       <c r="D120">
         <v>0.5260979659117897</v>
@@ -19135,10 +19135,10 @@
         <v>1.64061108</v>
       </c>
       <c r="B121">
-        <v>1.462133506701707</v>
+        <v>1.429991699087496</v>
       </c>
       <c r="C121">
-        <v>1.467114238013906</v>
+        <v>1.404523378609252</v>
       </c>
       <c r="D121">
         <v>1.448562832685473</v>
@@ -19290,10 +19290,10 @@
         <v>1.886908677</v>
       </c>
       <c r="B122">
-        <v>1.533969936111035</v>
+        <v>1.498317924675988</v>
       </c>
       <c r="C122">
-        <v>1.539164354417096</v>
+        <v>1.476289704850951</v>
       </c>
       <c r="D122">
         <v>1.517257236279052</v>
@@ -19445,10 +19445,10 @@
         <v>1.733513011</v>
       </c>
       <c r="B123">
-        <v>1.915779088818294</v>
+        <v>1.864975743078505</v>
       </c>
       <c r="C123">
-        <v>1.922216755890162</v>
+        <v>1.839678193484444</v>
       </c>
       <c r="D123">
         <v>1.886413113531943</v>
@@ -19600,10 +19600,10 @@
         <v>-0.0362457</v>
       </c>
       <c r="B124">
-        <v>0.4694808115661099</v>
+        <v>0.4652250142309798</v>
       </c>
       <c r="C124">
-        <v>0.4725614408114777</v>
+        <v>0.4724404022849286</v>
       </c>
       <c r="D124">
         <v>0.4680064958297534</v>
@@ -19755,10 +19755,10 @@
         <v>0.430903942</v>
       </c>
       <c r="B125">
-        <v>0.9221175603599957</v>
+        <v>0.901285969601534</v>
       </c>
       <c r="C125">
-        <v>0.9254027131883046</v>
+        <v>0.8890883423843067</v>
       </c>
       <c r="D125">
         <v>0.9137206155737718</v>
@@ -19910,10 +19910,10 @@
         <v>-0.243546309</v>
       </c>
       <c r="B126">
-        <v>0.008183665857102248</v>
+        <v>0.009250112284196711</v>
       </c>
       <c r="C126">
-        <v>0.00822398033399583</v>
+        <v>0.01710196558811496</v>
       </c>
       <c r="D126">
         <v>0.008616048563878573</v>
@@ -20065,10 +20065,10 @@
         <v>-0.931687809</v>
       </c>
       <c r="B127">
-        <v>-0.9078838863483666</v>
+        <v>-0.8892149157503247</v>
       </c>
       <c r="C127">
-        <v>-0.910695962453691</v>
+        <v>-0.862124628242367</v>
       </c>
       <c r="D127">
         <v>-0.9075512068999924</v>
@@ -20220,10 +20220,10 @@
         <v>0.141116369</v>
       </c>
       <c r="B128">
-        <v>0.1457645065559483</v>
+        <v>0.1429461113240177</v>
       </c>
       <c r="C128">
-        <v>0.1461775921299869</v>
+        <v>0.1239832147399045</v>
       </c>
       <c r="D128">
         <v>0.144093878926764</v>
@@ -20375,10 +20375,10 @@
         <v>0.56391939</v>
       </c>
       <c r="B129">
-        <v>0.5847482269063179</v>
+        <v>0.574735694440343</v>
       </c>
       <c r="C129">
-        <v>0.5873803276674555</v>
+        <v>0.5413778002507516</v>
       </c>
       <c r="D129">
         <v>0.5819502414486469</v>
@@ -20530,10 +20530,10 @@
         <v>1.941603295</v>
       </c>
       <c r="B130">
-        <v>1.812422432240126</v>
+        <v>1.77064013360709</v>
       </c>
       <c r="C130">
-        <v>1.818521961487302</v>
+        <v>1.71046756881644</v>
       </c>
       <c r="D130">
         <v>1.792946948738027</v>
@@ -20685,10 +20685,10 @@
         <v>0.686945786</v>
       </c>
       <c r="B131">
-        <v>0.8282769732674187</v>
+        <v>0.8121959982317749</v>
       </c>
       <c r="C131">
-        <v>0.8312851275964878</v>
+        <v>0.7876879952636037</v>
       </c>
       <c r="D131">
         <v>0.82343827663372</v>
@@ -20840,10 +20840,10 @@
         <v>0.489776809</v>
       </c>
       <c r="B132">
-        <v>1.168213950375195</v>
+        <v>1.144428378517836</v>
       </c>
       <c r="C132">
-        <v>1.172252554911013</v>
+        <v>1.122965679529464</v>
       </c>
       <c r="D132">
         <v>1.160032735883224</v>
@@ -20995,10 +20995,10 @@
         <v>-0.927615797</v>
       </c>
       <c r="B133">
-        <v>0.122653080698393</v>
+        <v>0.1223609306199301</v>
       </c>
       <c r="C133">
-        <v>0.1229296696586228</v>
+        <v>0.132656682975449</v>
       </c>
       <c r="D133">
         <v>0.1228675381370498</v>
@@ -21150,10 +21150,10 @@
         <v>-0.570785532</v>
       </c>
       <c r="B134">
-        <v>0.1177009865371905</v>
+        <v>0.1171324472349326</v>
       </c>
       <c r="C134">
-        <v>0.1179742641213338</v>
+        <v>0.1381324682741509</v>
       </c>
       <c r="D134">
         <v>0.1181385920865444</v>
@@ -21305,10 +21305,10 @@
         <v>0.629936161</v>
       </c>
       <c r="B135">
-        <v>0.2626103221607214</v>
+        <v>0.249162822320318</v>
       </c>
       <c r="C135">
-        <v>0.2619443943079046</v>
+        <v>0.2663309389246927</v>
       </c>
       <c r="D135">
         <v>0.2608445838298733</v>
@@ -21460,10 +21460,10 @@
         <v>1.229927464</v>
       </c>
       <c r="B136">
-        <v>1.12834779061541</v>
+        <v>1.101430765444972</v>
       </c>
       <c r="C136">
-        <v>1.132312515885802</v>
+        <v>1.08829710766083</v>
       </c>
       <c r="D136">
         <v>1.116249328075382</v>
@@ -21615,10 +21615,10 @@
         <v>0.831135585</v>
       </c>
       <c r="B137">
-        <v>0.63240307767532</v>
+        <v>0.6196332043510325</v>
       </c>
       <c r="C137">
-        <v>0.6348348148496981</v>
+        <v>0.6141236909377278</v>
       </c>
       <c r="D137">
         <v>0.6282613955267361</v>
@@ -21770,10 +21770,10 @@
         <v>-0.615633494</v>
       </c>
       <c r="B138">
-        <v>-0.2034419293461963</v>
+        <v>-0.1976093296199202</v>
       </c>
       <c r="C138">
-        <v>-0.2040253378353663</v>
+        <v>-0.1831392512265304</v>
       </c>
       <c r="D138">
         <v>-0.2022115986507149</v>
@@ -21925,10 +21925,10 @@
         <v>-0.504548817</v>
       </c>
       <c r="B139">
-        <v>-0.4844629679287785</v>
+        <v>-0.4736561972764592</v>
       </c>
       <c r="C139">
-        <v>-0.4859241653464086</v>
+        <v>-0.461741984540002</v>
       </c>
       <c r="D139">
         <v>-0.4833372482583501</v>
